--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\AutoCoffee\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284ACE3-B8EB-42BE-818B-AAF5704F0DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD0FD65-73E7-4B0C-9E91-072F7C23B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2355" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
   <si>
     <t>Pin</t>
   </si>
@@ -519,16 +519,19 @@
     <t>Brewing Chamber Translation Stepper Step</t>
   </si>
   <si>
-    <t>Brewing Chamber Flip Stepper Enable</t>
-  </si>
-  <si>
-    <t>Brewing Chamber Flip Stepper Step</t>
-  </si>
-  <si>
-    <t>Brewing Chamber Flip Stepper Direction</t>
-  </si>
-  <si>
     <t>Parallel Master Port Data</t>
+  </si>
+  <si>
+    <t>P6_GRD_RLY</t>
+  </si>
+  <si>
+    <t>Grinding motor relay</t>
+  </si>
+  <si>
+    <t>Water heater relay</t>
+  </si>
+  <si>
+    <t>P7_HTR_RLY</t>
   </si>
 </sst>
 </file>
@@ -927,16 +930,16 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,7 +953,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -958,7 +961,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -966,10 +969,10 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -977,10 +980,10 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -988,23 +991,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1034,7 +1049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -1114,7 +1129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>21</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>22</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -1144,7 +1159,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>24</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>25</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>26</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>27</v>
       </c>
@@ -1188,7 +1203,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>28</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>29</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>32</v>
       </c>
@@ -1224,7 +1239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>33</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>34</v>
       </c>
@@ -1240,7 +1255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>35</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>38</v>
       </c>
@@ -1256,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>39</v>
       </c>
@@ -1270,7 +1285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>40</v>
       </c>
@@ -1284,7 +1299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>47</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>48</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>49</v>
       </c>
@@ -1358,7 +1373,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>51</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>52</v>
       </c>
@@ -1400,7 +1415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>53</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>54</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -1456,7 +1471,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>59</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>61</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>63</v>
       </c>
@@ -1528,7 +1543,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>64</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>66</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>67</v>
       </c>
@@ -1558,7 +1573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>68</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>69</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>70</v>
       </c>
@@ -1588,7 +1603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>71</v>
       </c>
@@ -1596,7 +1611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1604,7 +1619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>73</v>
       </c>
@@ -1618,7 +1633,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>74</v>
       </c>
@@ -1632,7 +1647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>76</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>77</v>
       </c>
@@ -1660,7 +1675,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>78</v>
       </c>
@@ -1674,7 +1689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>79</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>80</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>81</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>82</v>
       </c>
@@ -1730,7 +1745,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>83</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>84</v>
       </c>
@@ -1758,49 +1773,31 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>90</v>
       </c>
@@ -1808,7 +1805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>91</v>
       </c>
@@ -1816,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>92</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>93</v>
       </c>
@@ -1832,10 +1829,10 @@
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>94</v>
       </c>
@@ -1843,10 +1840,10 @@
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>95</v>
       </c>
@@ -1854,7 +1851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>96</v>
       </c>
@@ -1862,7 +1859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>97</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>98</v>
       </c>
@@ -1878,10 +1875,10 @@
         <v>66</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>99</v>
       </c>
@@ -1889,10 +1886,10 @@
         <v>67</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>100</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>68</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\AutoCoffee\autocoffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD0FD65-73E7-4B0C-9E91-072F7C23B819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9C565-3B3E-4D1F-BB29-172371A5AE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="31710" yWindow="1095" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
   <si>
     <t>Pin</t>
   </si>
@@ -309,9 +309,6 @@
     <t>RG13</t>
   </si>
   <si>
-    <t>RRG14</t>
-  </si>
-  <si>
     <t>RG15</t>
   </si>
   <si>
@@ -532,6 +529,45 @@
   </si>
   <si>
     <t>P7_HTR_RLY</t>
+  </si>
+  <si>
+    <t>DS18B20 Temperature Sensor</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>MTR1</t>
+  </si>
+  <si>
+    <t>Water Reservoir Pump Motor</t>
+  </si>
+  <si>
+    <t>Hot Water Reservoir Pump Motor</t>
+  </si>
+  <si>
+    <t>MTR2</t>
+  </si>
+  <si>
+    <t>TOF1_CE</t>
+  </si>
+  <si>
+    <t>TOF2_CE</t>
+  </si>
+  <si>
+    <t>TOF Sensor 2 Chip Enable</t>
+  </si>
+  <si>
+    <t>TOF Sensor 1 Chip Enable</t>
+  </si>
+  <si>
+    <t>RG14</t>
+  </si>
+  <si>
+    <t>TOF3_CE</t>
+  </si>
+  <si>
+    <t>TOF Sensor 3 Chip Enable</t>
   </si>
 </sst>
 </file>
@@ -561,12 +597,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -581,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,6 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,6 +646,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8585"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -929,17 +977,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB57F5-D47B-4A55-97C3-2C08F13C4EA9}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,18 +998,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -969,10 +1017,10 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -980,10 +1028,10 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -991,7 +1039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -999,13 +1047,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" t="s">
         <v>162</v>
       </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1013,13 +1061,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1027,7 +1075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1035,63 +1083,63 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>100</v>
+      <c r="C11" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>102</v>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
-        <v>105</v>
+      <c r="C13" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1102,10 +1150,10 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -1113,7 +1161,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1121,7 +1169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -1129,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>21</v>
       </c>
@@ -1137,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>22</v>
       </c>
@@ -1145,21 +1193,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
-        <v>104</v>
+      <c r="C20" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>24</v>
       </c>
@@ -1167,7 +1215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>25</v>
       </c>
@@ -1175,63 +1223,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>140</v>
+      <c r="C23" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>139</v>
+      <c r="C24" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>115</v>
+      <c r="C25" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
-        <v>116</v>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>32</v>
       </c>
@@ -1239,7 +1287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>33</v>
       </c>
@@ -1247,7 +1295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>34</v>
       </c>
@@ -1255,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>35</v>
       </c>
@@ -1263,7 +1311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>38</v>
       </c>
@@ -1271,35 +1319,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
-        <v>112</v>
+      <c r="C32" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
-        <v>111</v>
+      <c r="C33" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41</v>
       </c>
@@ -1307,7 +1355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42</v>
       </c>
@@ -1315,7 +1363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43</v>
       </c>
@@ -1323,7 +1371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44</v>
       </c>
@@ -1331,189 +1379,189 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
-        <v>107</v>
+      <c r="C38" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
-        <v>108</v>
+      <c r="C39" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C40" t="s">
-        <v>113</v>
+      <c r="C40" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" t="s">
-        <v>114</v>
+      <c r="C41" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" t="s">
-        <v>110</v>
+      <c r="C42" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
-        <v>109</v>
+      <c r="C43" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
-        <v>101</v>
+      <c r="C44" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C45" t="s">
-        <v>99</v>
+      <c r="C45" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C47" t="s">
-        <v>98</v>
+      <c r="C47" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C48" t="s">
-        <v>97</v>
+      <c r="C48" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -1521,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>61</v>
       </c>
@@ -1529,35 +1577,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" t="s">
-        <v>141</v>
+      <c r="C53" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C54" t="s">
-        <v>142</v>
+      <c r="C54" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>66</v>
       </c>
@@ -1565,7 +1613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>67</v>
       </c>
@@ -1573,21 +1621,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>69</v>
       </c>
@@ -1595,7 +1643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>70</v>
       </c>
@@ -1603,7 +1651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>71</v>
       </c>
@@ -1611,7 +1659,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1619,35 +1667,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>103</v>
+      <c r="C62" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
-        <v>106</v>
+      <c r="C63" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>76</v>
       </c>
@@ -1655,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>77</v>
       </c>
@@ -1669,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>78</v>
       </c>
@@ -1683,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>79</v>
       </c>
@@ -1697,13 +1745,13 @@
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>80</v>
       </c>
@@ -1711,13 +1759,13 @@
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>81</v>
       </c>
@@ -1725,13 +1773,13 @@
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>82</v>
       </c>
@@ -1739,13 +1787,13 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>83</v>
       </c>
@@ -1753,13 +1801,13 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>84</v>
       </c>
@@ -1767,29 +1815,41 @@
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>89</v>
       </c>
@@ -1797,7 +1857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>90</v>
       </c>
@@ -1805,15 +1865,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>92</v>
       </c>
@@ -1821,7 +1887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>93</v>
       </c>
@@ -1829,10 +1895,10 @@
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>94</v>
       </c>
@@ -1840,34 +1906,52 @@
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>98</v>
       </c>
@@ -1875,10 +1959,10 @@
         <v>66</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>99</v>
       </c>
@@ -1886,10 +1970,10 @@
         <v>67</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>100</v>
       </c>
@@ -1897,7 +1981,7 @@
         <v>68</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9C565-3B3E-4D1F-BB29-172371A5AE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8AA7A-D4CF-4F60-8113-A91171B3B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31710" yWindow="1095" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="30870" yWindow="1440" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="197">
   <si>
     <t>Pin</t>
   </si>
@@ -531,12 +532,6 @@
     <t>P7_HTR_RLY</t>
   </si>
   <si>
-    <t>DS18B20 Temperature Sensor</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
     <t>MTR1</t>
   </si>
   <si>
@@ -568,13 +563,76 @@
   </si>
   <si>
     <t>TOF Sensor 3 Chip Enable</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>I2C Bus</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DS3231</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>HiLetgo LCD</t>
+  </si>
+  <si>
+    <t>0x20 - 0x27</t>
+  </si>
+  <si>
+    <t>0x29</t>
+  </si>
+  <si>
+    <t>VL6180X</t>
+  </si>
+  <si>
+    <t>adjustable, resets with power off</t>
+  </si>
+  <si>
+    <t>TOF1_GPIO1</t>
+  </si>
+  <si>
+    <t>TOF4_GPIO1</t>
+  </si>
+  <si>
+    <t>TOF2_GPIO1</t>
+  </si>
+  <si>
+    <t>TOF3_GPIO1</t>
+  </si>
+  <si>
+    <t>TOF Sensor 4 Chip Enable</t>
+  </si>
+  <si>
+    <t>TOF4_CE</t>
+  </si>
+  <si>
+    <t>TEMP1</t>
+  </si>
+  <si>
+    <t>DS18B20 Temperature Sensor 1</t>
+  </si>
+  <si>
+    <t>DS18B20 Temperature Sensor 2</t>
+  </si>
+  <si>
+    <t>TEMP2</t>
+  </si>
+  <si>
+    <t>Headers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,8 +654,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +672,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -633,6 +710,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,16 +743,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16BEC0A4-504A-4A34-97D8-C813770A5AE3}" name="Table1" displayName="Table1" ref="A1:D86" totalsRowShown="0">
-  <autoFilter ref="A1:D86" xr:uid="{16BEC0A4-504A-4A34-97D8-C813770A5AE3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16BEC0A4-504A-4A34-97D8-C813770A5AE3}" name="Table1" displayName="Table1" ref="A1:E86" totalsRowShown="0">
+  <autoFilter ref="A1:E86" xr:uid="{16BEC0A4-504A-4A34-97D8-C813770A5AE3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E86">
     <sortCondition ref="A1:A86"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8D657999-7537-46EA-A72A-6B0C575A4483}" name="Pin" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{849E1AE7-AC0D-4D5E-99CA-A3A87D3847AB}" name="Port" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3447E694-FA64-42FA-90AC-BF802B0B6821}" name="Function"/>
     <tableColumn id="4" xr3:uid="{33A262B7-EC84-4775-B650-7BD8E3DBA14B}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{54945802-7ECA-46E0-939C-30939629220D}" name="Headers"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -975,19 +1056,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB57F5-D47B-4A55-97C3-2C08F13C4EA9}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1000,16 +1082,20 @@
       <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1019,8 +1105,9 @@
       <c r="D3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1030,44 +1117,46 @@
       <c r="D4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>161</v>
       </c>
       <c r="D6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>164</v>
       </c>
       <c r="D7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1075,7 +1164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1096,8 +1185,9 @@
       <c r="D10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1110,8 +1200,9 @@
       <c r="D11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1124,8 +1215,9 @@
       <c r="D12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -1138,54 +1230,59 @@
       <c r="D13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>22</v>
       </c>
@@ -1193,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -1206,8 +1303,9 @@
       <c r="D20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>24</v>
       </c>
@@ -1215,7 +1313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>25</v>
       </c>
@@ -1223,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>26</v>
       </c>
@@ -1237,7 +1335,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>27</v>
       </c>
@@ -1251,7 +1349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>28</v>
       </c>
@@ -1265,7 +1363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>29</v>
       </c>
@@ -1279,39 +1377,63 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>38</v>
       </c>
@@ -1319,7 +1441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39</v>
       </c>
@@ -1332,8 +1454,9 @@
       <c r="D32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40</v>
       </c>
@@ -1346,40 +1469,53 @@
       <c r="D33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>47</v>
       </c>
@@ -1392,8 +1528,9 @@
       <c r="D38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>48</v>
       </c>
@@ -1406,8 +1543,9 @@
       <c r="D39" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>49</v>
       </c>
@@ -1420,8 +1558,9 @@
       <c r="D40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -1434,8 +1573,9 @@
       <c r="D41" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>51</v>
       </c>
@@ -1448,8 +1588,9 @@
       <c r="D42" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>52</v>
       </c>
@@ -1462,8 +1603,9 @@
       <c r="D43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>53</v>
       </c>
@@ -1476,8 +1618,9 @@
       <c r="D44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>54</v>
       </c>
@@ -1490,8 +1633,9 @@
       <c r="D45" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -1504,8 +1648,9 @@
       <c r="D46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -1518,8 +1663,9 @@
       <c r="D47" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -1532,8 +1678,9 @@
       <c r="D48" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -1546,8 +1693,9 @@
       <c r="D49" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>59</v>
       </c>
@@ -1560,8 +1708,9 @@
       <c r="D50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -1569,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>61</v>
       </c>
@@ -1577,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>63</v>
       </c>
@@ -1591,7 +1740,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>64</v>
       </c>
@@ -1605,23 +1754,25 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>68</v>
       </c>
@@ -1634,32 +1785,36 @@
       <c r="D57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1667,7 +1822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>73</v>
       </c>
@@ -1681,7 +1836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>74</v>
       </c>
@@ -1695,199 +1850,207 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D64" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D66" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D67" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D69" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C73" t="s">
-        <v>167</v>
+      <c r="C73" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C74" t="s">
-        <v>170</v>
+      <c r="C74" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C77" t="s">
-        <v>166</v>
+      <c r="C77" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>93</v>
       </c>
@@ -1897,8 +2060,9 @@
       <c r="D79" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>94</v>
       </c>
@@ -1908,50 +2072,36 @@
       <c r="D80" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C82" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C83" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>98</v>
       </c>
@@ -1961,8 +2111,9 @@
       <c r="D84" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>99</v>
       </c>
@@ -1972,8 +2123,9 @@
       <c r="D85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>100</v>
       </c>
@@ -1983,6 +2135,7 @@
       <c r="D86" t="s">
         <v>160</v>
       </c>
+      <c r="E86" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1992,4 +2145,144 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769AF198-B4AF-4289-A4BC-F56B6D64137C}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8AA7A-D4CF-4F60-8113-A91171B3B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C0257-5898-4321-92B2-678D121BC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="1440" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="28785" yWindow="1320" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="199">
   <si>
     <t>Pin</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>Headers</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>Fan control</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB57F5-D47B-4A55-97C3-2C08F13C4EA9}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,6 +1826,12 @@
       </c>
       <c r="B61" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">

--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C0257-5898-4321-92B2-678D121BC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6622A1-C3EA-49FC-B458-268DD38D3FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="1320" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="24390" yWindow="1920" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="200">
   <si>
     <t>Pin</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>Fan control</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB57F5-D47B-4A55-97C3-2C08F13C4EA9}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,6 +2096,9 @@
       <c r="B81" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C81" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,6 +2108,9 @@
       <c r="B82" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="C82" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2111,6 +2120,9 @@
       <c r="B83" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C83" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,6 +2132,9 @@
       <c r="B84" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C84" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="D84" t="s">
         <v>160</v>
       </c>
@@ -2132,6 +2147,9 @@
       <c r="B85" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="C85" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="D85" t="s">
         <v>160</v>
       </c>
@@ -2143,6 +2161,9 @@
       </c>
       <c r="B86" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D86" t="s">
         <v>160</v>

--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6622A1-C3EA-49FC-B458-268DD38D3FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3185E3C4-38EE-474F-8328-0E858EEB8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24390" yWindow="1920" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="29040" yWindow="1665" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="197">
   <si>
     <t>Pin</t>
   </si>
@@ -550,9 +550,6 @@
     <t>TOF2_CE</t>
   </si>
   <si>
-    <t>TOF Sensor 2 Chip Enable</t>
-  </si>
-  <si>
     <t>TOF Sensor 1 Chip Enable</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>TOF3_CE</t>
   </si>
   <si>
-    <t>TOF Sensor 3 Chip Enable</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -605,9 +599,6 @@
   </si>
   <si>
     <t>TOF3_GPIO1</t>
-  </si>
-  <si>
-    <t>TOF Sensor 4 Chip Enable</t>
   </si>
   <si>
     <t>TOF4_CE</t>
@@ -1067,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB57F5-D47B-4A55-97C3-2C08F13C4EA9}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1083,7 @@
         <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,7 +1388,7 @@
         <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,10 +1399,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,10 +1410,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,10 +1421,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1488,7 +1470,7 @@
         <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,7 +1481,7 @@
         <v>57</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,7 +1492,7 @@
         <v>58</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,7 +1503,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,10 +1813,10 @@
         <v>26</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,10 +2027,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2059,10 +2041,10 @@
         <v>9</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2094,10 +2076,10 @@
         <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E81" s="6"/>
     </row>
@@ -2109,7 +2091,7 @@
         <v>89</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E82" s="6"/>
     </row>
@@ -2121,7 +2103,7 @@
         <v>90</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E83" s="6"/>
     </row>
@@ -2133,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D84" t="s">
         <v>160</v>
@@ -2148,7 +2130,7 @@
         <v>67</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D85" t="s">
         <v>160</v>
@@ -2163,7 +2145,7 @@
         <v>68</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
         <v>160</v>
@@ -2196,13 +2178,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,13 +2214,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
         <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,13 +2228,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
         <v>183</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
         <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/PIC24_pins.xlsx
+++ b/PIC24_pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\University of Akron\SDP\autocoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3185E3C4-38EE-474F-8328-0E858EEB8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C9E166-CE1B-4976-A8F8-98EFE1A363C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="1665" windowWidth="26265" windowHeight="17730" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F69A8B9-D59C-46E1-AAB6-6584CC9B384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="201">
   <si>
     <t>Pin</t>
   </si>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t>LIMIT</t>
+  </si>
+  <si>
+    <t>PROX1</t>
+  </si>
+  <si>
+    <t>PROX2</t>
+  </si>
+  <si>
+    <t>PROX4</t>
+  </si>
+  <si>
+    <t>PROX3</t>
   </si>
 </sst>
 </file>
@@ -1058,18 +1070,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DB57F5-D47B-4A55-97C3-2C08F13C4EA9}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1095,7 +1107,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1107,7 +1119,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1119,7 +1131,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1128,7 +1140,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1142,7 +1154,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1187,7 +1199,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1202,7 +1214,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1217,7 +1229,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -1232,7 +1244,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>18</v>
       </c>
@@ -1255,7 +1267,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1264,7 +1276,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -1273,7 +1285,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>21</v>
       </c>
@@ -1282,7 +1294,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>22</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -1305,7 +1317,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>24</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>25</v>
       </c>
@@ -1321,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>26</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>27</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>28</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>29</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>32</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>33</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>34</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>35</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>38</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>39</v>
       </c>
@@ -1447,7 +1459,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>40</v>
       </c>
@@ -1462,7 +1474,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>41</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>47</v>
       </c>
@@ -1521,7 +1533,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>48</v>
       </c>
@@ -1536,7 +1548,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>49</v>
       </c>
@@ -1551,7 +1563,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -1566,7 +1578,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>51</v>
       </c>
@@ -1581,7 +1593,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>52</v>
       </c>
@@ -1596,7 +1608,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>53</v>
       </c>
@@ -1611,7 +1623,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>54</v>
       </c>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -1641,7 +1653,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -1656,7 +1668,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -1671,7 +1683,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -1686,7 +1698,7 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>59</v>
       </c>
@@ -1701,7 +1713,7 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>61</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>63</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>64</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>66</v>
       </c>
@@ -1754,7 +1766,7 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>67</v>
       </c>
@@ -1763,7 +1775,7 @@
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>68</v>
       </c>
@@ -1778,7 +1790,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>69</v>
       </c>
@@ -1787,7 +1799,7 @@
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>70</v>
       </c>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>71</v>
       </c>
@@ -1805,7 +1817,7 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>73</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>74</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>76</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>77</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>78</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>79</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>80</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>81</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>82</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>83</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>84</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>87</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>88</v>
       </c>
@@ -2001,25 +2013,31 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="C75" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C76" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>91</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>92</v>
       </c>
@@ -2047,31 +2065,37 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C79" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="D79" t="s">
         <v>160</v>
       </c>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C80" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="D80" t="s">
         <v>160</v>
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>95</v>
       </c>
@@ -2083,7 +2107,7 @@
       </c>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>96</v>
       </c>
@@ -2095,7 +2119,7 @@
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>97</v>
       </c>
@@ -2107,7 +2131,7 @@
       </c>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>98</v>
       </c>
@@ -2122,7 +2146,7 @@
       </c>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>99</v>
       </c>
@@ -2137,7 +2161,7 @@
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>100</v>
       </c>
@@ -2170,13 +2194,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -2187,7 +2211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2209,7 +2233,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2223,7 +2247,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2237,7 +2261,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2251,47 +2275,47 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
